--- a/Luban/Datas/__beans__.xlsx
+++ b/Luban/Datas/__beans__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace2\luban_examples\MiniTemplate\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Github\Jam101\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DD87AC-1C06-47DA-8356-D406D12FD20C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D6E263-D3ED-4109-871A-FDD7EC556D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="4680" windowWidth="29910" windowHeight="13980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1185" yWindow="4350" windowWidth="28800" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="73">
   <si>
     <t>##var</t>
   </si>
@@ -203,6 +203,58 @@
   </si>
   <si>
     <t>字段变体</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>group</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>权重</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShopDice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店掉落</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dice_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落库id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DiceCell</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落库</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -295,11 +347,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -578,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -621,15 +673,15 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -638,7 +690,7 @@
       <c r="J2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>56</v>
       </c>
       <c r="L2" t="s">
@@ -653,7 +705,7 @@
       <c r="O2" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="2" t="s">
         <v>58</v>
       </c>
     </row>
@@ -670,7 +722,7 @@
       <c r="J3" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>57</v>
       </c>
       <c r="L3" t="s">
@@ -682,7 +734,7 @@
       <c r="N3" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -863,6 +915,75 @@
       </c>
       <c r="N16" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="J18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="J19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="J21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
